--- a/data/trans_orig/P16B17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B17-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A5D355E-F18D-417B-A742-14A179DDAD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57D90D23-AC88-4DAE-A40C-6534E1BE998F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56AFC72D-B454-40D4-A674-6D3D939B93ED}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E263EA0-8334-4DC5-9B86-C502B60BB638}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -545,7 +545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BB3D3E-16D8-432B-927E-7746ABBAA957}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424CF3A0-51E7-4118-9C3E-57CF9D29C39B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1581,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9EB5F2-7364-422A-BAD4-285B4C8ED7EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1149217-4AC4-416E-B13F-A0F5CCF38384}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2601,7 +2601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750EE507-D282-47C7-8E5A-51CBA0B428A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38D8B7E-9B61-41E0-97DC-7694719C1352}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B17-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57D90D23-AC88-4DAE-A40C-6534E1BE998F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6DBC770-06B6-4EFE-B5F9-BFF581798EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E263EA0-8334-4DC5-9B86-C502B60BB638}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2045BB8B-2A5D-4067-A9FC-7E076084CD14}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -130,7 +130,7 @@
     <t>90,51%</t>
   </si>
   <si>
-    <t>Porcentaje de hormonas para la menopausia recetados en 2015 (Tasa respuesta: 0,26%)</t>
+    <t>Porcentaje de hormonas para la menopausia recetados en 2016 (Tasa respuesta: 0,26%)</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -545,7 +545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424CF3A0-51E7-4118-9C3E-57CF9D29C39B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD65381-BB39-4229-B455-4E1C1D9BDAAF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1581,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1149217-4AC4-416E-B13F-A0F5CCF38384}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D110763C-7647-4606-A384-78F846E25CFF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2601,7 +2601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38D8B7E-9B61-41E0-97DC-7694719C1352}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB9DED2-7DC0-4ED2-B93F-D400DCFA85A3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B17-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6DBC770-06B6-4EFE-B5F9-BFF581798EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DECEBAD4-FA80-41CB-87DB-E432C71C67F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2045BB8B-2A5D-4067-A9FC-7E076084CD14}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E8B7049B-1896-4B2A-B708-2163BFD92354}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -545,7 +545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD65381-BB39-4229-B455-4E1C1D9BDAAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BA43F-FD2F-47AA-8E8B-0DE34DAC32D9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1581,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D110763C-7647-4606-A384-78F846E25CFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0227AF-1111-4B72-A96E-6AA606BF8C43}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2601,7 +2601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB9DED2-7DC0-4ED2-B93F-D400DCFA85A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E008B27-0AAF-4F84-A7EA-7E940FC47949}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
